--- a/Jeopardy SCNA_ Part II.xlsx
+++ b/Jeopardy SCNA_ Part II.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38620" yWindow="6380" windowWidth="25600" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="-27420" yWindow="10180" windowWidth="25600" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1" sheetId="3" r:id="rId1"/>
     <sheet name="Round 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Final" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Before &amp; After</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>Great Lakes Software Excellence Conference</t>
+  </si>
+  <si>
+    <t>Uganda</t>
   </si>
 </sst>
 </file>
@@ -232,8 +236,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -252,13 +258,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,7 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -827,6 +837,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
